--- a/src/test/resources/excelTests/reception_test.xlsx
+++ b/src/test/resources/excelTests/reception_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBU\_XDMS\src\test\resources\excelTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3379B-3B42-466B-BF8C-0104F7AF947F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11EC8C-78EE-4DBD-A31E-D3B1E08ED1AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Supplier</t>
   </si>
@@ -89,13 +89,19 @@
   </si>
   <si>
     <t>25000002</t>
+  </si>
+  <si>
+    <t>3|2</t>
+  </si>
+  <si>
+    <t>2|2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -105,6 +111,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,11 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +485,36 @@
     <col min="13" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -544,11 +586,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>3</v>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -579,8 +621,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>2</v>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
